--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/2.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/2.xlsx
@@ -479,13 +479,13 @@
         <v>-0.252311108707248</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.600728537629879</v>
+        <v>-1.602075897997712</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1508423015822084</v>
+        <v>0.149782986713573</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2450754500559175</v>
+        <v>-0.2447039815432905</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2543668422214214</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.533163766848047</v>
+        <v>-1.535589330313971</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09945372530998353</v>
+        <v>0.09913262540923819</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2485020896829891</v>
+        <v>-0.2480613643290249</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2612593570952477</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.488485234089927</v>
+        <v>-1.492391162539435</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09523850210314029</v>
+        <v>0.09506850803803982</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2582279538335061</v>
+        <v>-0.2579525004872784</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2667725414607282</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.558098590758132</v>
+        <v>-1.561734574928336</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1217607242970569</v>
+        <v>0.1224391265383375</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2353826403069479</v>
+        <v>-0.2354298608805869</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2694322526938578</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.592538916141751</v>
+        <v>-1.595251738097313</v>
       </c>
       <c r="F6" t="n">
-        <v>0.106695787287088</v>
+        <v>0.1081989755479301</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2610312818885426</v>
+        <v>-0.2611194269593354</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2711078275564497</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.479331525890003</v>
+        <v>-1.481681536438105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1194941367623839</v>
+        <v>0.1220062712799798</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2528259202092021</v>
+        <v>-0.2530022103507878</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2745144623028232</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.264880077717951</v>
+        <v>-1.265708011775755</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1561310058297787</v>
+        <v>0.1596017179922467</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2586261806711951</v>
+        <v>-0.2589331143998488</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2784060315367926</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.007112410337265</v>
+        <v>-1.006671684983301</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1776100707590479</v>
+        <v>0.1820314904707815</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2557016531438184</v>
+        <v>-0.2560778437138093</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2796077808523785</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5944541783345459</v>
+        <v>-0.5930910777754996</v>
       </c>
       <c r="F10" t="n">
-        <v>0.166565178584881</v>
+        <v>0.1713376045606646</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1641330907621509</v>
+        <v>-0.1649625988390764</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2722821919012764</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2210449001310199</v>
+        <v>-0.2187011856594032</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1365769662858602</v>
+        <v>0.1411101413552062</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1283241557525603</v>
+        <v>-0.1288451560817108</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2489689956917989</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2402969562839691</v>
+        <v>0.2431034323772482</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1013976389247899</v>
+        <v>0.1050021427125685</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03843821981156322</v>
+        <v>-0.03875459765494466</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2027136404046688</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7645869853980152</v>
+        <v>0.769129604582089</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.007315139726084721</v>
+        <v>-0.005311413384668945</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05527730465155843</v>
+        <v>0.05517814144691648</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1319411984951067</v>
       </c>
       <c r="E14" t="n">
-        <v>1.309419538064156</v>
+        <v>1.314780647191307</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2316364747982523</v>
+        <v>-0.2289952707127097</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1589925725923033</v>
+        <v>0.1593530229710812</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.0391269012408666</v>
       </c>
       <c r="E15" t="n">
-        <v>1.870950859588177</v>
+        <v>1.876423724072939</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4435151887165378</v>
+        <v>-0.4407213047762291</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2925606871876371</v>
+        <v>0.2929652101018114</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.068698593184696</v>
       </c>
       <c r="E16" t="n">
-        <v>2.343063728850226</v>
+        <v>2.349114258352506</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6681497535938442</v>
+        <v>-0.6659288126136889</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4366621377427151</v>
+        <v>0.4371532317085609</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1815974642342178</v>
       </c>
       <c r="E17" t="n">
-        <v>2.798499865522095</v>
+        <v>2.805011582626916</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8813923550807368</v>
+        <v>-0.8802991988009935</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5553982701580324</v>
+        <v>0.5565331379444902</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2935013366187614</v>
       </c>
       <c r="E18" t="n">
-        <v>3.22229821785582</v>
+        <v>3.227966260711624</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.209268408143277</v>
+        <v>-1.208394827530955</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6768574556532</v>
+        <v>0.6781056528163915</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4023712268179676</v>
       </c>
       <c r="E19" t="n">
-        <v>3.596810883463378</v>
+        <v>3.602170418571407</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.507833864138516</v>
+        <v>-1.508176213297399</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8377946147297102</v>
+        <v>0.8390365158164164</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5075266430327899</v>
       </c>
       <c r="E20" t="n">
-        <v>3.72220826480004</v>
+        <v>3.728628688795826</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.843313216566498</v>
+        <v>-1.843869632325878</v>
       </c>
       <c r="G20" t="n">
-        <v>1.013708565745396</v>
+        <v>1.015134627069295</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6076340482613077</v>
       </c>
       <c r="E21" t="n">
-        <v>3.972628410922494</v>
+        <v>3.978611257602558</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.079382243350493</v>
+        <v>-2.080813026731756</v>
       </c>
       <c r="G21" t="n">
-        <v>1.181308547762372</v>
+        <v>1.182783403679031</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.699627365743056</v>
       </c>
       <c r="E22" t="n">
-        <v>4.177126549181001</v>
+        <v>4.183765761834647</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.37520969308423</v>
+        <v>-2.375655140495558</v>
       </c>
       <c r="G22" t="n">
-        <v>1.321385231424284</v>
+        <v>1.323132392648928</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7816954205404806</v>
       </c>
       <c r="E23" t="n">
-        <v>4.402283688406579</v>
+        <v>4.408409770826681</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.507385587766773</v>
+        <v>-2.508018343453536</v>
       </c>
       <c r="G23" t="n">
-        <v>1.492142695798589</v>
+        <v>1.493880412908505</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8532891751114393</v>
       </c>
       <c r="E24" t="n">
-        <v>4.530287645408115</v>
+        <v>4.536053277449439</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.622556566872345</v>
+        <v>-2.622789521702297</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59586425981582</v>
+        <v>1.597786137162928</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9144422478508336</v>
       </c>
       <c r="E25" t="n">
-        <v>4.671489752741757</v>
+        <v>4.676395970342852</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.818621897688483</v>
+        <v>-2.817951365542809</v>
       </c>
       <c r="G25" t="n">
-        <v>1.659053257440436</v>
+        <v>1.660967264691937</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.963999122139971</v>
       </c>
       <c r="E26" t="n">
-        <v>4.784694781964824</v>
+        <v>4.788972965936519</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.908491306428706</v>
+        <v>-2.907823135311714</v>
       </c>
       <c r="G26" t="n">
-        <v>1.70223647203332</v>
+        <v>1.703837249479683</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.001635090342272</v>
       </c>
       <c r="E27" t="n">
-        <v>4.894718718543742</v>
+        <v>4.897777037696429</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.981219646937965</v>
+        <v>-2.979912424057725</v>
       </c>
       <c r="G27" t="n">
-        <v>1.752521660901513</v>
+        <v>1.753924111938592</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.027544623925862</v>
       </c>
       <c r="E28" t="n">
-        <v>4.893745974726778</v>
+        <v>4.896867254644317</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.070027379780871</v>
+        <v>-3.068469887860344</v>
       </c>
       <c r="G28" t="n">
-        <v>1.793213203225378</v>
+        <v>1.794610932205094</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.041808835973857</v>
       </c>
       <c r="E29" t="n">
-        <v>4.902119756452097</v>
+        <v>4.905011229577927</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083429365589186</v>
+        <v>-3.081833310200187</v>
       </c>
       <c r="G29" t="n">
-        <v>1.724453751930479</v>
+        <v>1.726174154830061</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.043665982541958</v>
       </c>
       <c r="E30" t="n">
-        <v>4.843564671120591</v>
+        <v>4.846663914770432</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.073125049411591</v>
+        <v>-3.07141723866498</v>
       </c>
       <c r="G30" t="n">
-        <v>1.688448064530726</v>
+        <v>1.689886718007595</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.03250032730506</v>
       </c>
       <c r="E31" t="n">
-        <v>4.718170437822171</v>
+        <v>4.720918675207963</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.061298656743698</v>
+        <v>-3.05937599238703</v>
       </c>
       <c r="G31" t="n">
-        <v>1.629678912598722</v>
+        <v>1.631100251865257</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.00896098828212</v>
       </c>
       <c r="E32" t="n">
-        <v>4.637284743216772</v>
+        <v>4.639776415485791</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.022193725694104</v>
+        <v>-3.0203977698767</v>
       </c>
       <c r="G32" t="n">
-        <v>1.592295958467831</v>
+        <v>1.593333237068768</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9744479872435683</v>
       </c>
       <c r="E33" t="n">
-        <v>4.559188210494317</v>
+        <v>4.560389187083869</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.953117896555824</v>
+        <v>-2.951181066027063</v>
       </c>
       <c r="G33" t="n">
-        <v>1.56300975869691</v>
+        <v>1.563459928165602</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9304806645823052</v>
       </c>
       <c r="E34" t="n">
-        <v>4.356249925185019</v>
+        <v>4.35825994760292</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.880890881136699</v>
+        <v>-2.878651051927088</v>
       </c>
       <c r="G34" t="n">
-        <v>1.512760772268507</v>
+        <v>1.512784382555327</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.878437994538659</v>
       </c>
       <c r="E35" t="n">
-        <v>4.131634248537169</v>
+        <v>4.133208267658469</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.84907759366653</v>
+        <v>-2.8465481449386</v>
       </c>
       <c r="G35" t="n">
-        <v>1.391899714039434</v>
+        <v>1.391957952746922</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8198122692799109</v>
       </c>
       <c r="E36" t="n">
-        <v>3.980301754138835</v>
+        <v>3.981439769963536</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.823747690956999</v>
+        <v>-2.821061627326499</v>
       </c>
       <c r="G36" t="n">
-        <v>1.365412120266186</v>
+        <v>1.365117778690503</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7564269226683817</v>
       </c>
       <c r="E37" t="n">
-        <v>3.784377298034053</v>
+        <v>3.785069866447426</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.760062090299612</v>
+        <v>-2.757282372531395</v>
       </c>
       <c r="G37" t="n">
-        <v>1.278434971661353</v>
+        <v>1.27827442171098</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6900932299913676</v>
       </c>
       <c r="E38" t="n">
-        <v>3.714442054455542</v>
+        <v>3.714138268765132</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.728771377177715</v>
+        <v>-2.725596580610052</v>
       </c>
       <c r="G38" t="n">
-        <v>1.235291107546501</v>
+        <v>1.234650481764131</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6220135858851046</v>
       </c>
       <c r="E39" t="n">
-        <v>3.504222356691108</v>
+        <v>3.503490437799703</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.745921102513847</v>
+        <v>-2.742625106473843</v>
       </c>
       <c r="G39" t="n">
-        <v>1.159950682305443</v>
+        <v>1.159435978052778</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5533615331627056</v>
       </c>
       <c r="E40" t="n">
-        <v>3.258165391572899</v>
+        <v>3.257538931962622</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.71090389912227</v>
+        <v>-2.707482768562123</v>
       </c>
       <c r="G40" t="n">
-        <v>1.095815699188925</v>
+        <v>1.095297846898017</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4853743097304563</v>
       </c>
       <c r="E41" t="n">
-        <v>3.086191210417828</v>
+        <v>3.085210596505258</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.649907510133626</v>
+        <v>-2.646882245382486</v>
       </c>
       <c r="G41" t="n">
-        <v>1.063874129160371</v>
+        <v>1.063200448976454</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4180799966958081</v>
       </c>
       <c r="E42" t="n">
-        <v>2.971952050632067</v>
+        <v>2.970096282088054</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.619154324541653</v>
+        <v>-2.615838653262633</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9797821576048813</v>
+        <v>0.9792296768933048</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3502918107960526</v>
       </c>
       <c r="E43" t="n">
-        <v>2.838558652159198</v>
+        <v>2.83601975931654</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.602273756475264</v>
+        <v>-2.598664530630121</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9276789766515859</v>
+        <v>0.9271689944562845</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2802286799733176</v>
       </c>
       <c r="E44" t="n">
-        <v>2.709397791103506</v>
+        <v>2.706528354245375</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.530617322987611</v>
+        <v>-2.527222163742965</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8637863924797484</v>
+        <v>0.8628923496188496</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2074206087048729</v>
       </c>
       <c r="E45" t="n">
-        <v>2.512966500841666</v>
+        <v>2.509919199822827</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.465202662325475</v>
+        <v>-2.461960182935596</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8336675365936598</v>
+        <v>0.832726273159122</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1328375071417606</v>
       </c>
       <c r="E46" t="n">
-        <v>2.386920623627028</v>
+        <v>2.383525464382382</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.425892321780552</v>
+        <v>-2.421969079120709</v>
       </c>
       <c r="G46" t="n">
-        <v>0.770417152223313</v>
+        <v>0.7694507044828343</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.05830095891394404</v>
       </c>
       <c r="E47" t="n">
-        <v>2.223716877015844</v>
+        <v>2.220469675568601</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.290806065742723</v>
+        <v>-2.287591918697027</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7141554127515412</v>
+        <v>0.7131118380741188</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.01507320351508994</v>
       </c>
       <c r="E48" t="n">
-        <v>2.135724486077772</v>
+        <v>2.131864991192343</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.250107440332812</v>
+        <v>-2.246159013367029</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6654489650620127</v>
+        <v>0.6643314114858891</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.08583389411690281</v>
       </c>
       <c r="E49" t="n">
-        <v>1.982405579548357</v>
+        <v>1.9783666464831</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.198208881865286</v>
+        <v>-2.194206151239818</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5911946130146527</v>
+        <v>0.589829938436485</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1527988057643322</v>
       </c>
       <c r="E50" t="n">
-        <v>1.888834864844395</v>
+        <v>1.885003702303149</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.150778176673572</v>
+        <v>-2.146769149971619</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5345204805331002</v>
+        <v>0.5332533951404531</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2149739010130643</v>
       </c>
       <c r="E51" t="n">
-        <v>1.764772251722596</v>
+        <v>1.761123675399421</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.100720433568406</v>
+        <v>-2.096614604690493</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4897034340923057</v>
+        <v>0.4882679286536794</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2730002704541731</v>
       </c>
       <c r="E52" t="n">
-        <v>1.652731996649292</v>
+        <v>1.649565070177235</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.982835845497713</v>
+        <v>-1.979466657568568</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4540235686506617</v>
+        <v>0.4526415798621596</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3277340617920622</v>
       </c>
       <c r="E53" t="n">
-        <v>1.609498413444526</v>
+        <v>1.605607438176671</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.923204131087236</v>
+        <v>-1.919903412989868</v>
       </c>
       <c r="G53" t="n">
-        <v>0.382822813698625</v>
+        <v>0.3818059973462648</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3796627397516657</v>
       </c>
       <c r="E54" t="n">
-        <v>1.566008265122988</v>
+        <v>1.561429443499124</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.912720376729813</v>
+        <v>-1.909226841290086</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3486020639824268</v>
+        <v>0.3474782143298181</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.428835191870323</v>
       </c>
       <c r="E55" t="n">
-        <v>1.510746027793242</v>
+        <v>1.505932677320305</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.847882594075634</v>
+        <v>-1.844512619136929</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3217445757156732</v>
+        <v>0.3203987893669611</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4758318822445793</v>
       </c>
       <c r="E56" t="n">
-        <v>1.453204610775853</v>
+        <v>1.447601102704023</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.786235348180332</v>
+        <v>-1.783159714817311</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2144688765225461</v>
+        <v>0.2138361208357832</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.521244203472363</v>
       </c>
       <c r="E57" t="n">
-        <v>1.462245776608604</v>
+        <v>1.456635972460289</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.78371534356713</v>
+        <v>-1.780834888575149</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2150780219224895</v>
+        <v>0.2143665652796616</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.565843265379204</v>
       </c>
       <c r="E58" t="n">
-        <v>1.447023437686505</v>
+        <v>1.441012258662258</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.769006134878575</v>
+        <v>-1.766080820341637</v>
       </c>
       <c r="G58" t="n">
-        <v>0.210505496375111</v>
+        <v>0.2097641333689783</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.6096001788958373</v>
       </c>
       <c r="E59" t="n">
-        <v>1.435256070735661</v>
+        <v>1.428749075688204</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.732477086120989</v>
+        <v>-1.730127862582448</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1365722442284963</v>
+        <v>0.1362464222703871</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6522008019901731</v>
       </c>
       <c r="E60" t="n">
-        <v>1.468220753193062</v>
+        <v>1.460468709020656</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.764781467557004</v>
+        <v>-1.762176465911251</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1163083220608713</v>
+        <v>0.1159368535482443</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6928320122284984</v>
       </c>
       <c r="E61" t="n">
-        <v>1.46564093585325</v>
+        <v>1.457493812881397</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.783179390056327</v>
+        <v>-1.780504344559676</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1286014113982297</v>
+        <v>0.1279560635584964</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7311447819996534</v>
       </c>
       <c r="E62" t="n">
-        <v>1.476034184111198</v>
+        <v>1.467367634829317</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.826827727299556</v>
+        <v>-1.824081850942447</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04111742863633745</v>
+        <v>0.04099622916399729</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7672023771614903</v>
       </c>
       <c r="E63" t="n">
-        <v>1.462274108952788</v>
+        <v>1.453314792114344</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.787598448739379</v>
+        <v>-1.785595509407523</v>
       </c>
       <c r="G63" t="n">
-        <v>0.006998990163023733</v>
+        <v>0.006851032365621469</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.8012553406346824</v>
       </c>
       <c r="E64" t="n">
-        <v>1.463567952670497</v>
+        <v>1.454341052581432</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.815135126256973</v>
+        <v>-1.813062930083781</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02311986572306493</v>
+        <v>-0.02339846710753515</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.8333821136741573</v>
       </c>
       <c r="E65" t="n">
-        <v>1.473330019260804</v>
+        <v>1.463566378651376</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.840594885544012</v>
+        <v>-1.838528985447305</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02641586176306857</v>
+        <v>-0.02662520630620156</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.863209924433319</v>
       </c>
       <c r="E66" t="n">
-        <v>1.436792313398051</v>
+        <v>1.427420603549826</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.845833221179701</v>
+        <v>-1.844121475385286</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03488723267390887</v>
+        <v>-0.03494861941963959</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8897877340538555</v>
       </c>
       <c r="E67" t="n">
-        <v>1.402215835360439</v>
+        <v>1.392471082980466</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.857635216551213</v>
+        <v>-1.856223321399407</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05388564346800817</v>
+        <v>-0.05400526892122702</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.9120674643286129</v>
       </c>
       <c r="E68" t="n">
-        <v>1.352155731226591</v>
+        <v>1.34224255880064</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.887587226410444</v>
+        <v>-1.886411434126833</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06091363884461574</v>
+        <v>-0.06133547596912432</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.9282266835826483</v>
       </c>
       <c r="E69" t="n">
-        <v>1.248560088739066</v>
+        <v>1.23918680487172</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.909027727871241</v>
+        <v>-1.907931423553255</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08333081917018013</v>
+        <v>-0.08357164409573914</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.9367290707608684</v>
       </c>
       <c r="E70" t="n">
-        <v>1.265225803195397</v>
+        <v>1.254969494601002</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.913935519491457</v>
+        <v>-1.913706499709308</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05225338563921936</v>
+        <v>-0.05269253697406225</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.9364790847024315</v>
       </c>
       <c r="E71" t="n">
-        <v>1.25817419753197</v>
+        <v>1.247746320853353</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.948537968844571</v>
+        <v>-1.948461628917187</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07175076049477097</v>
+        <v>-0.07254564015102782</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.9278177183863225</v>
       </c>
       <c r="E72" t="n">
-        <v>1.24213966474328</v>
+        <v>1.231192361754634</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.977780883089655</v>
+        <v>-1.978049253349837</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.106755371733377</v>
+        <v>-0.1073141485214387</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9116005944733898</v>
       </c>
       <c r="E73" t="n">
-        <v>1.247245782772779</v>
+        <v>1.235801089741802</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.977495198619139</v>
+        <v>-1.977924118829694</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09409238790251294</v>
+        <v>-0.09476921612467223</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8886912728066526</v>
       </c>
       <c r="E74" t="n">
-        <v>1.242487522969087</v>
+        <v>1.23006221602554</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.985499872860514</v>
+        <v>-1.986231004742358</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07506407074510893</v>
+        <v>-0.07597700183546333</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8598941109423324</v>
       </c>
       <c r="E75" t="n">
-        <v>1.187231581715827</v>
+        <v>1.174947936493196</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.018204055153339</v>
+        <v>-2.018980833589701</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04704653038595668</v>
+        <v>-0.04820186042099139</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8266503258578355</v>
       </c>
       <c r="E76" t="n">
-        <v>1.223419855333651</v>
+        <v>1.210324016244429</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.021607084493591</v>
+        <v>-2.022701027782895</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02707065371752965</v>
+        <v>-0.02853763953858189</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7900121984875748</v>
       </c>
       <c r="E77" t="n">
-        <v>1.159229781547888</v>
+        <v>1.145705809257672</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.018939122082986</v>
+        <v>-2.02027467730741</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02873439192874448</v>
+        <v>-0.02997786703457202</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7506295540881064</v>
       </c>
       <c r="E78" t="n">
-        <v>1.179566108595092</v>
+        <v>1.165806033436682</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.029546436941432</v>
+        <v>-2.030981942380058</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02334022840004702</v>
+        <v>-0.02483082450791877</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.708805886879643</v>
       </c>
       <c r="E79" t="n">
-        <v>1.166407308741019</v>
+        <v>1.152419000810019</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.006159660837146</v>
+        <v>-2.007867471583757</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.0450191937577214</v>
+        <v>-0.04622804044288033</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6645368187552376</v>
       </c>
       <c r="E80" t="n">
-        <v>1.146093017961512</v>
+        <v>1.132658764761211</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.968513058503437</v>
+        <v>-1.969791162029933</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02853291748121799</v>
+        <v>-0.02994796067126731</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6168150039177761</v>
       </c>
       <c r="E81" t="n">
-        <v>1.171112051894586</v>
+        <v>1.158189354908708</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.921855983709842</v>
+        <v>-1.923271026899891</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.008523986411243649</v>
+        <v>-0.01008383936045263</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5641006999009318</v>
       </c>
       <c r="E82" t="n">
-        <v>1.230405352193983</v>
+        <v>1.217200905785392</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.950030138971564</v>
+        <v>-1.950791964226273</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0192920795003821</v>
+        <v>0.01751658593155493</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5053894464198878</v>
       </c>
       <c r="E83" t="n">
-        <v>1.317451757640154</v>
+        <v>1.304711646872346</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.845726974889013</v>
+        <v>-1.846299130839606</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01179502642562693</v>
+        <v>0.01037368715909241</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4416233568449571</v>
       </c>
       <c r="E84" t="n">
-        <v>1.31207333430267</v>
+        <v>1.300531052086171</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.7851319607763</v>
+        <v>-1.785123303671133</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02231891827064333</v>
+        <v>0.02100303828523595</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3742603317910831</v>
       </c>
       <c r="E85" t="n">
-        <v>1.42086638792873</v>
+        <v>1.410292127471833</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.757330061036766</v>
+        <v>-1.756469859586975</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01627153680660609</v>
+        <v>0.01507843031266016</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3056094926882438</v>
       </c>
       <c r="E86" t="n">
-        <v>1.665465811340615</v>
+        <v>1.655448753652657</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653299202262201</v>
+        <v>-1.651831429431588</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03227931127023408</v>
+        <v>0.03116647975147449</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2382448801291405</v>
       </c>
       <c r="E87" t="n">
-        <v>1.599766253217524</v>
+        <v>1.59222197956913</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.533638333613119</v>
+        <v>-1.531625950166536</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0531539528569238</v>
+        <v>0.05210093406477364</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1762132909228139</v>
       </c>
       <c r="E88" t="n">
-        <v>1.74668519799973</v>
+        <v>1.73995626625617</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.334056644079995</v>
+        <v>-1.332091481207051</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08982387632586593</v>
+        <v>0.08881807810735479</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1232967669304123</v>
       </c>
       <c r="E89" t="n">
-        <v>1.913513910647269</v>
+        <v>1.907842719753222</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.15930589319495</v>
+        <v>-1.157400543048616</v>
       </c>
       <c r="G89" t="n">
-        <v>0.11351129008232</v>
+        <v>0.1125558604756905</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.08281619368638517</v>
       </c>
       <c r="E90" t="n">
-        <v>1.934251612570405</v>
+        <v>1.930127682472597</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.919311262722431</v>
+        <v>-0.9174421150158865</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1423048218682735</v>
+        <v>0.1413525402998865</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.0580032781738976</v>
       </c>
       <c r="E91" t="n">
-        <v>1.972506573294497</v>
+        <v>1.968931975870023</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6677987473297942</v>
+        <v>-0.6655494740054555</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09544784664627329</v>
+        <v>0.0950260095217647</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.05040525631972539</v>
       </c>
       <c r="E92" t="n">
-        <v>1.987771410732871</v>
+        <v>1.9846107803373</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4627245180728914</v>
+        <v>-0.4602580301098133</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1066816211149963</v>
+        <v>0.1061464546137541</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05815436305828617</v>
       </c>
       <c r="E93" t="n">
-        <v>1.961195671888831</v>
+        <v>1.958124760583173</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2420690735342332</v>
+        <v>-0.2399551658543264</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09199287467501828</v>
+        <v>0.09143567190607783</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.07673597161383698</v>
       </c>
       <c r="E94" t="n">
-        <v>1.848720987538047</v>
+        <v>1.845876734985857</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05908620264478565</v>
+        <v>-0.0569266484103611</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06671097954868663</v>
+        <v>0.06621673754459821</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1003624899419454</v>
       </c>
       <c r="E95" t="n">
-        <v>1.797186027487542</v>
+        <v>1.794903699761655</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07207523671407937</v>
+        <v>0.07452283644770194</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05420382361083136</v>
+        <v>0.05358208605791759</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1237325226150717</v>
       </c>
       <c r="E96" t="n">
-        <v>1.669243457231736</v>
+        <v>1.667148437781285</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1454748963785731</v>
+        <v>0.1477462059706099</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.00525474869630212</v>
+        <v>-0.005657697591355097</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1427008674574302</v>
       </c>
       <c r="E97" t="n">
-        <v>1.503496095720531</v>
+        <v>1.502457243100473</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1497798386753304</v>
+        <v>0.1524257648182369</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02041097881530644</v>
+        <v>-0.02092253502972917</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1594098101482194</v>
       </c>
       <c r="E98" t="n">
-        <v>1.38999515090266</v>
+        <v>1.38918453105519</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1779107084112163</v>
+        <v>0.18027488513141</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05840622638438375</v>
+        <v>-0.0592058280980045</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1781128271801107</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250403265130108</v>
+        <v>1.250192346567854</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1810272662713917</v>
+        <v>0.183374128781251</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09805419403082677</v>
+        <v>-0.09864287718219322</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2050235416071797</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091358077037402</v>
+        <v>1.091539089236351</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2369553136894477</v>
+        <v>0.2385277587916271</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1451881966181759</v>
+        <v>-0.1455203146527703</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2362710213172025</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9097131224010598</v>
+        <v>0.91095974554513</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2190445501081672</v>
+        <v>0.2207822672180831</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.170802209779102</v>
+        <v>-0.17128385963022</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2736720463956948</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8497713262236871</v>
+        <v>0.850644906836009</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2573105289661082</v>
+        <v>0.2585492820145718</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.208811623520271</v>
+        <v>-0.2091988322241109</v>
       </c>
     </row>
   </sheetData>
